--- a/biology/Médecine/Jean_Méry/Jean_Méry.xlsx
+++ b/biology/Médecine/Jean_Méry/Jean_Méry.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jean_M%C3%A9ry</t>
+          <t>Jean_Méry</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean Méry[1] est un chirurgien français, membre de l'Académie royale des sciences dans la section d'anatomie, né à Vatan le 6 janvier 1645, et mort à Paris le 3 novembre 1722 (à 77 ans).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean Méry est un chirurgien français, membre de l'Académie royale des sciences dans la section d'anatomie, né à Vatan le 6 janvier 1645, et mort à Paris le 3 novembre 1722 (à 77 ans).
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jean_M%C3%A9ry</t>
+          <t>Jean_Méry</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils de Jean Méry, maître chirurgien dans le Berry, et Jeanne Moret.
 Il a commencé des études classiques mais s'en est rapidement détaché pour s'intéresser à la chirurgie qui lui a d'abord été enseignée par son père. À 18 ans il est venu à Paris pour s'instruire à l'Hôtel-Dieu qui était alors la meilleure école de chirurgie. Il lui est arrivé de dérober des cadavres pour en faire l'autopsie dans son lit.
@@ -522,7 +536,7 @@
 Alors qu'il n'avait pas présenté sa candidature, il est nommé premier chirurgien de l'Hôtel-Dieu en 1700. Il y a alors fait construire un amphithéâtre pour enseigner aux élèves l'anatomie et la chirurgie. Cet amphithéâtre est cité dans les registres de l'Hôtel-Dieu en 1703. Jean Méry a alors plus de 100 chirurgiens externes inscrits dans son service. Il a alors essayé de combler par des conférences les lacunes existant dans l'enseignement de l'anatomie et la chirurgie.
 En 1692 il est envoyé en mission en Angleterre.
 L'essentiel de ses travaux sont décrits dans les Mémoires de l'Académie royale des sciences. Il a assisté pendant 36 ans à toutes les séances de l'Académie. En dehors des écrits dans les Mémoires, il n'a rédigé que deux publications sur la taille et la circulation du sang chez le fœtus.
-Il a choisi comme élèves de jeunes médecins, comme Rouhault, Helvétius, Winslow, ... Le médecin anglais Martin Lister est venu le visiter et a décrit son cabinet quand il l'a vu en 1698[2].
+Il a choisi comme élèves de jeunes médecins, comme Rouhault, Helvétius, Winslow, ... Le médecin anglais Martin Lister est venu le visiter et a décrit son cabinet quand il l'a vu en 1698.
 Jean Méry n'a pas toujours reconnu ses erreurs car elles étaient en litige, mais il les a reconnues quand elles ont été établies. Sa recherche de la vérité l'a souvent conduit à avoir des propos excessifs. Il a souvent été trompé par les idées physiologiques de l'époque et au rôle qu'on attribuait aux esprits animaux.
 Il s'est ainsi trompé sur le système de la fécondation de la femme par les ovules, il attribue l'érection de la verge à l'action de fibres musculaires, il commet des erreurs de dissection et d'interprétation sur l'œil. Jean Méry ne pouvait admettre que l'homme se forme d'un œuf comme le poulet.
 La partie la plus considérable de l'œuvre anatomique et physiologique de Jean Méry concerne la circulation du fœtus.
@@ -536,7 +550,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jean_M%C3%A9ry</t>
+          <t>Jean_Méry</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -554,7 +568,9 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Observations sur la manière de tailler dans les deux sexes pour l'extraction de la pierre, pratiquée par Frère Jacques et Nouveau système de circulation du sang par le trou ovale dans le fœtus humain, avec les réponses aux objections qui ont été faites contre cette hypothèse, chez Jean Boudot, Paris, 1700 (lire en ligne)</t>
         </is>
@@ -566,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jean_M%C3%A9ry</t>
+          <t>Jean_Méry</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,7 +600,9 @@
           <t>Mémoires de l'Académie royale des sciences</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>De la manière dont la circulation du sang se fait dans le fœtus, dans Mémoires de l'Académie royale des sciences depuis 1666 jusqu'en 1699, La Compagnie des libraires, Paris, 1730, tome 10, p. 65-67 (lire en ligne)
 Pour quoi le fœtus et le fœtus vivent très longtemps sans respirer, dans Mémoires de l'Académie royale des sciences depuis 1666 jusqu'en 1699, La Compagnie des libraires, Paris, 1730, tome 10, p. 271-275 (lire en ligne)
@@ -602,7 +620,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Jean_M%C3%A9ry</t>
+          <t>Jean_Méry</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -620,7 +638,9 @@
           <t>Histoire de l'Académie royale des sciences</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Sur la peau de la grenouille, 1684, dans Histoire de l'Académie royale des sciences depuis son établissement en 1666 jusqu'à 1686, chez Gabriel Martin, Paris, 1733, tome 1, p. 259-260 (lire en ligne)
 Diverses observations anatomiques, 1684, dans Histoire de l'Académie royale des sciences depuis son établissement en 1666 jusqu'à 1686, chez Gabriel Martin, Paris, 1733, tome 1, p. 260-261 (lire en ligne)
